--- a/data/output/FV2404_FV2310/UTILMD/44104.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44104.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2992" uniqueCount="282">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="282">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -955,6 +955,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U131" totalsRowShown="0">
+  <autoFilter ref="A1:U131"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1244,7 +1274,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7680,5 +7713,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/44104.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/44104.xlsx
@@ -1764,7 +1764,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2126,7 +2126,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3862,7 +3862,7 @@
         <v>268</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4082,7 +4082,7 @@
         <v>269</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4302,7 +4302,7 @@
         <v>270</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4522,7 +4522,7 @@
         <v>270</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -4742,7 +4742,7 @@
         <v>271</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4962,7 +4962,7 @@
         <v>272</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5236,7 +5236,7 @@
         <v>270</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5452,7 +5452,7 @@
         <v>273</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5852,7 +5852,7 @@
         <v>270</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5998,7 +5998,7 @@
         <v>275</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6260,7 +6260,7 @@
         <v>277</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6718,7 +6718,7 @@
         <v>279</v>
       </c>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7030,7 +7030,7 @@
         <v>280</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="K106" s="2"/>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7640,7 +7640,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8062,7 +8062,7 @@
         <v>282</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8374,7 +8374,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N129" s="2"/>
